--- a/data/7086.xlsx
+++ b/data/7086.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1215"/>
+  <dimension ref="A1:I1216"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43321,6 +43321,43 @@
         <v>60100</v>
       </c>
     </row>
+    <row r="1216">
+      <c r="A1216" t="n">
+        <v>1581379200</v>
+      </c>
+      <c r="B1216" t="inlineStr">
+        <is>
+          <t>2020-02-11</t>
+        </is>
+      </c>
+      <c r="C1216" t="inlineStr">
+        <is>
+          <t>7086</t>
+        </is>
+      </c>
+      <c r="D1216" t="inlineStr">
+        <is>
+          <t>ABLEGRP</t>
+        </is>
+      </c>
+      <c r="E1216" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="F1216" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="G1216" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="H1216" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="I1216" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7086.xlsx
+++ b/data/7086.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1216"/>
+  <dimension ref="A1:I1217"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43358,6 +43358,41 @@
         </is>
       </c>
     </row>
+    <row r="1217">
+      <c r="A1217" t="n">
+        <v>1581465600</v>
+      </c>
+      <c r="B1217" t="inlineStr">
+        <is>
+          <t>2020-02-12</t>
+        </is>
+      </c>
+      <c r="C1217" t="inlineStr">
+        <is>
+          <t>7086</t>
+        </is>
+      </c>
+      <c r="D1217" t="inlineStr">
+        <is>
+          <t>ABLEGRP</t>
+        </is>
+      </c>
+      <c r="E1217" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="F1217" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="G1217" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="H1217" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="I1217" t="n">
+        <v>93900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7086.xlsx
+++ b/data/7086.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1217"/>
+  <dimension ref="A1:I1218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43393,6 +43393,41 @@
         <v>93900</v>
       </c>
     </row>
+    <row r="1218">
+      <c r="A1218" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="B1218" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="C1218" t="inlineStr">
+        <is>
+          <t>7086</t>
+        </is>
+      </c>
+      <c r="D1218" t="inlineStr">
+        <is>
+          <t>ABLEGRP</t>
+        </is>
+      </c>
+      <c r="E1218" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="F1218" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="G1218" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="H1218" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="I1218" t="n">
+        <v>35700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7086.xlsx
+++ b/data/7086.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1218"/>
+  <dimension ref="A1:I1219"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43428,6 +43428,43 @@
         <v>35700</v>
       </c>
     </row>
+    <row r="1219">
+      <c r="A1219" t="n">
+        <v>1581638400</v>
+      </c>
+      <c r="B1219" t="inlineStr">
+        <is>
+          <t>2020-02-14</t>
+        </is>
+      </c>
+      <c r="C1219" t="inlineStr">
+        <is>
+          <t>7086</t>
+        </is>
+      </c>
+      <c r="D1219" t="inlineStr">
+        <is>
+          <t>ABLEGRP</t>
+        </is>
+      </c>
+      <c r="E1219" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="F1219" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="G1219" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="H1219" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="I1219" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7086.xlsx
+++ b/data/7086.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1219"/>
+  <dimension ref="A1:I1220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43465,6 +43465,43 @@
         </is>
       </c>
     </row>
+    <row r="1220">
+      <c r="A1220" t="n">
+        <v>1581897600</v>
+      </c>
+      <c r="B1220" t="inlineStr">
+        <is>
+          <t>2020-02-17</t>
+        </is>
+      </c>
+      <c r="C1220" t="inlineStr">
+        <is>
+          <t>7086</t>
+        </is>
+      </c>
+      <c r="D1220" t="inlineStr">
+        <is>
+          <t>ABLEGRP</t>
+        </is>
+      </c>
+      <c r="E1220" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="F1220" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="G1220" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="H1220" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="I1220" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7086.xlsx
+++ b/data/7086.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1220"/>
+  <dimension ref="A1:I1221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43502,6 +43502,43 @@
         </is>
       </c>
     </row>
+    <row r="1221">
+      <c r="A1221" t="n">
+        <v>1581984000</v>
+      </c>
+      <c r="B1221" t="inlineStr">
+        <is>
+          <t>2020-02-18</t>
+        </is>
+      </c>
+      <c r="C1221" t="inlineStr">
+        <is>
+          <t>7086</t>
+        </is>
+      </c>
+      <c r="D1221" t="inlineStr">
+        <is>
+          <t>ABLEGRP</t>
+        </is>
+      </c>
+      <c r="E1221" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="F1221" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="G1221" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="H1221" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="I1221" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7086.xlsx
+++ b/data/7086.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1221"/>
+  <dimension ref="A1:I1222"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43539,6 +43539,43 @@
         </is>
       </c>
     </row>
+    <row r="1222">
+      <c r="A1222" t="n">
+        <v>1582070400</v>
+      </c>
+      <c r="B1222" t="inlineStr">
+        <is>
+          <t>2020-02-19</t>
+        </is>
+      </c>
+      <c r="C1222" t="inlineStr">
+        <is>
+          <t>7086</t>
+        </is>
+      </c>
+      <c r="D1222" t="inlineStr">
+        <is>
+          <t>ABLEGRP</t>
+        </is>
+      </c>
+      <c r="E1222" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="F1222" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="G1222" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="H1222" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="I1222" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7086.xlsx
+++ b/data/7086.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1222"/>
+  <dimension ref="A1:I1223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43576,6 +43576,43 @@
         </is>
       </c>
     </row>
+    <row r="1223">
+      <c r="A1223" t="n">
+        <v>1582156800</v>
+      </c>
+      <c r="B1223" t="inlineStr">
+        <is>
+          <t>2020-02-20</t>
+        </is>
+      </c>
+      <c r="C1223" t="inlineStr">
+        <is>
+          <t>7086</t>
+        </is>
+      </c>
+      <c r="D1223" t="inlineStr">
+        <is>
+          <t>ABLEGRP</t>
+        </is>
+      </c>
+      <c r="E1223" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="F1223" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="G1223" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="H1223" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="I1223" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7086.xlsx
+++ b/data/7086.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1223"/>
+  <dimension ref="A1:I1224"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43613,6 +43613,41 @@
         </is>
       </c>
     </row>
+    <row r="1224">
+      <c r="A1224" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="B1224" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="C1224" t="inlineStr">
+        <is>
+          <t>7086</t>
+        </is>
+      </c>
+      <c r="D1224" t="inlineStr">
+        <is>
+          <t>ABLEGRP</t>
+        </is>
+      </c>
+      <c r="E1224" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="F1224" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="G1224" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="H1224" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="I1224" t="n">
+        <v>160300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7086.xlsx
+++ b/data/7086.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1224"/>
+  <dimension ref="A1:I1225"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43648,6 +43648,41 @@
         <v>160300</v>
       </c>
     </row>
+    <row r="1225">
+      <c r="A1225" t="n">
+        <v>1582502400</v>
+      </c>
+      <c r="B1225" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+      <c r="C1225" t="inlineStr">
+        <is>
+          <t>7086</t>
+        </is>
+      </c>
+      <c r="D1225" t="inlineStr">
+        <is>
+          <t>ABLEGRP</t>
+        </is>
+      </c>
+      <c r="E1225" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="F1225" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="G1225" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="H1225" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="I1225" t="n">
+        <v>545600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7086.xlsx
+++ b/data/7086.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1225"/>
+  <dimension ref="A1:I1226"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43683,6 +43683,41 @@
         <v>545600</v>
       </c>
     </row>
+    <row r="1226">
+      <c r="A1226" t="n">
+        <v>1582588800</v>
+      </c>
+      <c r="B1226" t="inlineStr">
+        <is>
+          <t>2020-02-25</t>
+        </is>
+      </c>
+      <c r="C1226" t="inlineStr">
+        <is>
+          <t>7086</t>
+        </is>
+      </c>
+      <c r="D1226" t="inlineStr">
+        <is>
+          <t>ABLEGRP</t>
+        </is>
+      </c>
+      <c r="E1226" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="F1226" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="G1226" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="H1226" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="I1226" t="n">
+        <v>21000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7086.xlsx
+++ b/data/7086.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1226"/>
+  <dimension ref="A1:I1227"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43718,6 +43718,43 @@
         <v>21000</v>
       </c>
     </row>
+    <row r="1227">
+      <c r="A1227" t="n">
+        <v>1582675200</v>
+      </c>
+      <c r="B1227" t="inlineStr">
+        <is>
+          <t>2020-02-26</t>
+        </is>
+      </c>
+      <c r="C1227" t="inlineStr">
+        <is>
+          <t>7086</t>
+        </is>
+      </c>
+      <c r="D1227" t="inlineStr">
+        <is>
+          <t>ABLEGRP</t>
+        </is>
+      </c>
+      <c r="E1227" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="F1227" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="G1227" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="H1227" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="I1227" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7086.xlsx
+++ b/data/7086.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1227"/>
+  <dimension ref="A1:I1229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43755,6 +43755,76 @@
         </is>
       </c>
     </row>
+    <row r="1228">
+      <c r="A1228" t="n">
+        <v>1582761600</v>
+      </c>
+      <c r="B1228" t="inlineStr">
+        <is>
+          <t>2020-02-27</t>
+        </is>
+      </c>
+      <c r="C1228" t="inlineStr">
+        <is>
+          <t>7086</t>
+        </is>
+      </c>
+      <c r="D1228" t="inlineStr">
+        <is>
+          <t>ABLEGRP</t>
+        </is>
+      </c>
+      <c r="E1228" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="F1228" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="G1228" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="H1228" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="I1228" t="n">
+        <v>52500</v>
+      </c>
+    </row>
+    <row r="1229">
+      <c r="A1229" t="n">
+        <v>1582848000</v>
+      </c>
+      <c r="B1229" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
+      </c>
+      <c r="C1229" t="inlineStr">
+        <is>
+          <t>7086</t>
+        </is>
+      </c>
+      <c r="D1229" t="inlineStr">
+        <is>
+          <t>ABLEGRP</t>
+        </is>
+      </c>
+      <c r="E1229" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="F1229" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="G1229" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="H1229" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="I1229" t="n">
+        <v>183800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7086.xlsx
+++ b/data/7086.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1229"/>
+  <dimension ref="A1:I1231"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43825,6 +43825,78 @@
         <v>183800</v>
       </c>
     </row>
+    <row r="1230">
+      <c r="A1230" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B1230" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C1230" t="inlineStr">
+        <is>
+          <t>7086</t>
+        </is>
+      </c>
+      <c r="D1230" t="inlineStr">
+        <is>
+          <t>ABLEGRP</t>
+        </is>
+      </c>
+      <c r="E1230" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="F1230" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="G1230" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="H1230" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="I1230" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1231">
+      <c r="A1231" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B1231" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C1231" t="inlineStr">
+        <is>
+          <t>7086</t>
+        </is>
+      </c>
+      <c r="D1231" t="inlineStr">
+        <is>
+          <t>ABLEGRP</t>
+        </is>
+      </c>
+      <c r="E1231" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="F1231" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="G1231" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="H1231" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="I1231" t="n">
+        <v>5000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7086.xlsx
+++ b/data/7086.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1231"/>
+  <dimension ref="A1:I1232"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43897,6 +43897,43 @@
         <v>5000</v>
       </c>
     </row>
+    <row r="1232">
+      <c r="A1232" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B1232" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C1232" t="inlineStr">
+        <is>
+          <t>7086</t>
+        </is>
+      </c>
+      <c r="D1232" t="inlineStr">
+        <is>
+          <t>ABLEGRP</t>
+        </is>
+      </c>
+      <c r="E1232" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="F1232" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="G1232" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="H1232" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="I1232" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7086.xlsx
+++ b/data/7086.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1232"/>
+  <dimension ref="A1:I1233"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43934,6 +43934,41 @@
         </is>
       </c>
     </row>
+    <row r="1233">
+      <c r="A1233" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B1233" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C1233" t="inlineStr">
+        <is>
+          <t>7086</t>
+        </is>
+      </c>
+      <c r="D1233" t="inlineStr">
+        <is>
+          <t>ABLEGRP</t>
+        </is>
+      </c>
+      <c r="E1233" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="F1233" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="G1233" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="H1233" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="I1233" t="n">
+        <v>40000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7086.xlsx
+++ b/data/7086.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1233"/>
+  <dimension ref="A1:I1234"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43969,6 +43969,43 @@
         <v>40000</v>
       </c>
     </row>
+    <row r="1234">
+      <c r="A1234" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B1234" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C1234" t="inlineStr">
+        <is>
+          <t>7086</t>
+        </is>
+      </c>
+      <c r="D1234" t="inlineStr">
+        <is>
+          <t>ABLEGRP</t>
+        </is>
+      </c>
+      <c r="E1234" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="F1234" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="G1234" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="H1234" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="I1234" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7086.xlsx
+++ b/data/7086.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1234"/>
+  <dimension ref="A1:I1235"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44006,6 +44006,41 @@
         </is>
       </c>
     </row>
+    <row r="1235">
+      <c r="A1235" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B1235" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C1235" t="inlineStr">
+        <is>
+          <t>7086</t>
+        </is>
+      </c>
+      <c r="D1235" t="inlineStr">
+        <is>
+          <t>ABLEGRP</t>
+        </is>
+      </c>
+      <c r="E1235" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="F1235" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="G1235" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="H1235" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="I1235" t="n">
+        <v>535000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7086.xlsx
+++ b/data/7086.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1235"/>
+  <dimension ref="A1:I1237"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44041,6 +44041,78 @@
         <v>535000</v>
       </c>
     </row>
+    <row r="1236">
+      <c r="A1236" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B1236" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C1236" t="inlineStr">
+        <is>
+          <t>7086</t>
+        </is>
+      </c>
+      <c r="D1236" t="inlineStr">
+        <is>
+          <t>ABLEGRP</t>
+        </is>
+      </c>
+      <c r="E1236" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="F1236" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="G1236" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="H1236" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="I1236" t="n">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="1237">
+      <c r="A1237" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B1237" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C1237" t="inlineStr">
+        <is>
+          <t>7086</t>
+        </is>
+      </c>
+      <c r="D1237" t="inlineStr">
+        <is>
+          <t>ABLEGRP</t>
+        </is>
+      </c>
+      <c r="E1237" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="F1237" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="G1237" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="H1237" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="I1237" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7086.xlsx
+++ b/data/7086.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1237"/>
+  <dimension ref="A1:I1238"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44113,6 +44113,41 @@
         </is>
       </c>
     </row>
+    <row r="1238">
+      <c r="A1238" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B1238" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C1238" t="inlineStr">
+        <is>
+          <t>7086</t>
+        </is>
+      </c>
+      <c r="D1238" t="inlineStr">
+        <is>
+          <t>ABLEGRP</t>
+        </is>
+      </c>
+      <c r="E1238" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="F1238" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="G1238" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="H1238" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="I1238" t="n">
+        <v>110000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7086.xlsx
+++ b/data/7086.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1238"/>
+  <dimension ref="A1:I1239"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44148,6 +44148,41 @@
         <v>110000</v>
       </c>
     </row>
+    <row r="1239">
+      <c r="A1239" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B1239" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C1239" t="inlineStr">
+        <is>
+          <t>7086</t>
+        </is>
+      </c>
+      <c r="D1239" t="inlineStr">
+        <is>
+          <t>ABLEGRP</t>
+        </is>
+      </c>
+      <c r="E1239" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="F1239" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="G1239" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="H1239" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="I1239" t="n">
+        <v>288900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7086.xlsx
+++ b/data/7086.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2435"/>
+  <dimension ref="A1:I2436"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -86043,6 +86043,41 @@
         <v>288900</v>
       </c>
     </row>
+    <row r="2436">
+      <c r="A2436" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="B2436" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="C2436" t="inlineStr">
+        <is>
+          <t>7086</t>
+        </is>
+      </c>
+      <c r="D2436" t="inlineStr">
+        <is>
+          <t>ABLEGRP</t>
+        </is>
+      </c>
+      <c r="E2436" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="F2436" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="G2436" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="H2436" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="I2436" t="n">
+        <v>90100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7086.xlsx
+++ b/data/7086.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2436"/>
+  <dimension ref="A1:I2437"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -86078,6 +86078,41 @@
         <v>90100</v>
       </c>
     </row>
+    <row r="2437">
+      <c r="A2437" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="B2437" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="C2437" t="inlineStr">
+        <is>
+          <t>7086</t>
+        </is>
+      </c>
+      <c r="D2437" t="inlineStr">
+        <is>
+          <t>ABLEGRP</t>
+        </is>
+      </c>
+      <c r="E2437" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="F2437" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="G2437" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="H2437" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="I2437" t="n">
+        <v>80000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7086.xlsx
+++ b/data/7086.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2437"/>
+  <dimension ref="A1:I2438"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -86113,6 +86113,41 @@
         <v>80000</v>
       </c>
     </row>
+    <row r="2438">
+      <c r="A2438" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="B2438" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="C2438" t="inlineStr">
+        <is>
+          <t>7086</t>
+        </is>
+      </c>
+      <c r="D2438" t="inlineStr">
+        <is>
+          <t>ABLEGRP</t>
+        </is>
+      </c>
+      <c r="E2438" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="F2438" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="G2438" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="H2438" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="I2438" t="n">
+        <v>425100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7086.xlsx
+++ b/data/7086.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2438"/>
+  <dimension ref="A1:I2439"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -86148,6 +86148,41 @@
         <v>425100</v>
       </c>
     </row>
+    <row r="2439">
+      <c r="A2439" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="B2439" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="C2439" t="inlineStr">
+        <is>
+          <t>7086</t>
+        </is>
+      </c>
+      <c r="D2439" t="inlineStr">
+        <is>
+          <t>ABLEGRP</t>
+        </is>
+      </c>
+      <c r="E2439" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="F2439" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="G2439" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="H2439" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="I2439" t="n">
+        <v>215000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7086.xlsx
+++ b/data/7086.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2439"/>
+  <dimension ref="A1:I2440"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -86183,6 +86183,43 @@
         <v>215000</v>
       </c>
     </row>
+    <row r="2440">
+      <c r="A2440" t="n">
+        <v>1584662400</v>
+      </c>
+      <c r="B2440" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="C2440" t="inlineStr">
+        <is>
+          <t>7086</t>
+        </is>
+      </c>
+      <c r="D2440" t="inlineStr">
+        <is>
+          <t>ABLEGRP</t>
+        </is>
+      </c>
+      <c r="E2440" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="F2440" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="G2440" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="H2440" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="I2440" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7086.xlsx
+++ b/data/7086.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2440"/>
+  <dimension ref="A1:I2441"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -86220,6 +86220,43 @@
         </is>
       </c>
     </row>
+    <row r="2441">
+      <c r="A2441" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B2441" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C2441" t="inlineStr">
+        <is>
+          <t>7086</t>
+        </is>
+      </c>
+      <c r="D2441" t="inlineStr">
+        <is>
+          <t>ABLEGRP</t>
+        </is>
+      </c>
+      <c r="E2441" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="F2441" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="G2441" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="H2441" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="I2441" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7086.xlsx
+++ b/data/7086.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2441"/>
+  <dimension ref="A1:I2442"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -86257,6 +86257,43 @@
         </is>
       </c>
     </row>
+    <row r="2442">
+      <c r="A2442" t="n">
+        <v>1585094400</v>
+      </c>
+      <c r="B2442" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="C2442" t="inlineStr">
+        <is>
+          <t>7086</t>
+        </is>
+      </c>
+      <c r="D2442" t="inlineStr">
+        <is>
+          <t>ABLEGRP</t>
+        </is>
+      </c>
+      <c r="E2442" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="F2442" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="G2442" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="H2442" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="I2442" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7086.xlsx
+++ b/data/7086.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2442"/>
+  <dimension ref="A1:I2443"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -86294,6 +86294,43 @@
         </is>
       </c>
     </row>
+    <row r="2443">
+      <c r="A2443" t="n">
+        <v>1585180800</v>
+      </c>
+      <c r="B2443" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="C2443" t="inlineStr">
+        <is>
+          <t>7086</t>
+        </is>
+      </c>
+      <c r="D2443" t="inlineStr">
+        <is>
+          <t>ABLEGRP</t>
+        </is>
+      </c>
+      <c r="E2443" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="F2443" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="G2443" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="H2443" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="I2443" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7086.xlsx
+++ b/data/7086.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2443"/>
+  <dimension ref="A1:I2444"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -86331,6 +86331,41 @@
         </is>
       </c>
     </row>
+    <row r="2444">
+      <c r="A2444" t="n">
+        <v>1585267200</v>
+      </c>
+      <c r="B2444" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="C2444" t="inlineStr">
+        <is>
+          <t>7086</t>
+        </is>
+      </c>
+      <c r="D2444" t="inlineStr">
+        <is>
+          <t>ABLEGRP</t>
+        </is>
+      </c>
+      <c r="E2444" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="F2444" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="G2444" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="H2444" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="I2444" t="n">
+        <v>45000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7086.xlsx
+++ b/data/7086.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2444"/>
+  <dimension ref="A1:I2445"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -86366,6 +86366,43 @@
         <v>45000</v>
       </c>
     </row>
+    <row r="2445">
+      <c r="A2445" t="n">
+        <v>1585526400</v>
+      </c>
+      <c r="B2445" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="C2445" t="inlineStr">
+        <is>
+          <t>7086</t>
+        </is>
+      </c>
+      <c r="D2445" t="inlineStr">
+        <is>
+          <t>ABLEGRP</t>
+        </is>
+      </c>
+      <c r="E2445" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="F2445" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="G2445" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="H2445" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="I2445" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7086.xlsx
+++ b/data/7086.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2445"/>
+  <dimension ref="A1:I2446"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -86403,6 +86403,43 @@
         </is>
       </c>
     </row>
+    <row r="2446">
+      <c r="A2446" t="n">
+        <v>1585612800</v>
+      </c>
+      <c r="B2446" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="C2446" t="inlineStr">
+        <is>
+          <t>7086</t>
+        </is>
+      </c>
+      <c r="D2446" t="inlineStr">
+        <is>
+          <t>ABLEGRP</t>
+        </is>
+      </c>
+      <c r="E2446" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="F2446" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="G2446" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="H2446" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="I2446" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7086.xlsx
+++ b/data/7086.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2446"/>
+  <dimension ref="A1:I2447"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -86440,6 +86440,41 @@
         </is>
       </c>
     </row>
+    <row r="2447">
+      <c r="A2447" t="n">
+        <v>1585699200</v>
+      </c>
+      <c r="B2447" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="C2447" t="inlineStr">
+        <is>
+          <t>7086</t>
+        </is>
+      </c>
+      <c r="D2447" t="inlineStr">
+        <is>
+          <t>ABLEGRP</t>
+        </is>
+      </c>
+      <c r="E2447" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="F2447" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="G2447" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="H2447" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="I2447" t="n">
+        <v>153000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7086.xlsx
+++ b/data/7086.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2447"/>
+  <dimension ref="A1:I2448"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -86475,6 +86475,41 @@
         <v>153000</v>
       </c>
     </row>
+    <row r="2448">
+      <c r="A2448" t="n">
+        <v>1585785600</v>
+      </c>
+      <c r="B2448" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="C2448" t="inlineStr">
+        <is>
+          <t>7086</t>
+        </is>
+      </c>
+      <c r="D2448" t="inlineStr">
+        <is>
+          <t>ABLEGRP</t>
+        </is>
+      </c>
+      <c r="E2448" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="F2448" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="G2448" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="H2448" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="I2448" t="n">
+        <v>100000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7086.xlsx
+++ b/data/7086.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2448"/>
+  <dimension ref="A1:I2449"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -86510,6 +86510,43 @@
         <v>100000</v>
       </c>
     </row>
+    <row r="2449">
+      <c r="A2449" t="n">
+        <v>1585872000</v>
+      </c>
+      <c r="B2449" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="C2449" t="inlineStr">
+        <is>
+          <t>7086</t>
+        </is>
+      </c>
+      <c r="D2449" t="inlineStr">
+        <is>
+          <t>ABLEGRP</t>
+        </is>
+      </c>
+      <c r="E2449" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="F2449" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="G2449" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="H2449" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="I2449" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
